--- a/Documents/Normalização de Tabelas.xlsx
+++ b/Documents/Normalização de Tabelas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>Tabelas não normalizadas</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Estrategia</t>
+  </si>
+  <si>
+    <t>Usuario_has_Jogo</t>
+  </si>
+  <si>
+    <t>ID_Usuario</t>
+  </si>
+  <si>
+    <t>ID_Jogo</t>
   </si>
   <si>
     <t>XBOX 360</t>
@@ -370,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -474,6 +483,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1109,12 +1121,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
+      <c r="G20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
@@ -1130,6 +1146,12 @@
       <c r="E21" s="16" t="s">
         <v>14</v>
       </c>
+      <c r="G21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="P21" s="1"/>
     </row>
     <row r="22">
@@ -1146,6 +1168,12 @@
       <c r="E22" s="22">
         <v>1.0425E8</v>
       </c>
+      <c r="G22" s="17">
+        <v>123457.0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>346312.0</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
@@ -1163,6 +1191,12 @@
       <c r="E23" s="22">
         <v>1.5768E8</v>
       </c>
+      <c r="G23" s="17">
+        <v>131000.0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>513242.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
@@ -1178,6 +1212,12 @@
       <c r="E24" s="22">
         <v>8.691E7</v>
       </c>
+      <c r="G24" s="17">
+        <v>253531.0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>613589.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
@@ -1193,6 +1233,12 @@
       <c r="E25" s="22">
         <v>8.806E7</v>
       </c>
+      <c r="G25" s="17">
+        <v>98190.0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>434573.0</v>
+      </c>
       <c r="P25" s="1"/>
     </row>
     <row r="26">
@@ -1201,7 +1247,7 @@
         <v>101451.0</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>24</v>

--- a/Documents/Normalização de Tabelas.xlsx
+++ b/Documents/Normalização de Tabelas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>Tabelas não normalizadas</t>
   </si>
@@ -82,118 +82,148 @@
     <t>Aventura, Acao</t>
   </si>
   <si>
+    <t>100323, 101451</t>
+  </si>
+  <si>
+    <t>PS3, XBOX 360</t>
+  </si>
+  <si>
+    <t>499,00, 299,00</t>
+  </si>
+  <si>
+    <t>86.91mi, 87.5mi</t>
+  </si>
+  <si>
+    <t>BaphoAbacaxi</t>
+  </si>
+  <si>
+    <t>diogomachado</t>
+  </si>
+  <si>
+    <t>enoisdoido</t>
+  </si>
+  <si>
+    <t>DiogoMachado</t>
+  </si>
+  <si>
+    <t>Resident Evil 2</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>4323, 4103</t>
+  </si>
+  <si>
+    <t>Terror, Acao</t>
+  </si>
+  <si>
+    <t>100322, 102032</t>
+  </si>
+  <si>
+    <t>PS2, Nintendo64</t>
+  </si>
+  <si>
+    <t>299,00</t>
+  </si>
+  <si>
+    <t>157.68mi, 32.93 mi</t>
+  </si>
+  <si>
+    <t>RatoEnvenenado</t>
+  </si>
+  <si>
+    <t>ivosiqueira</t>
+  </si>
+  <si>
+    <t>partiuchapa</t>
+  </si>
+  <si>
+    <t>IvoSiqueira</t>
+  </si>
+  <si>
+    <t>GTAV</t>
+  </si>
+  <si>
+    <t>GTA</t>
+  </si>
+  <si>
+    <t>Baragund</t>
+  </si>
+  <si>
+    <t>thiagosilva</t>
+  </si>
+  <si>
+    <t>faloumanolo</t>
+  </si>
+  <si>
+    <t>ThiagoSilva</t>
+  </si>
+  <si>
+    <t>Stellaris</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4111, 4103</t>
+  </si>
+  <si>
+    <t>Estrateg, Acao</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>399,00</t>
+  </si>
+  <si>
+    <t>Tabelas normalizadas</t>
+  </si>
+  <si>
+    <t>Aventura</t>
+  </si>
+  <si>
+    <t>Acao</t>
+  </si>
+  <si>
+    <t>Educacao</t>
+  </si>
+  <si>
+    <t>Terror</t>
+  </si>
+  <si>
+    <t>Estrategia</t>
+  </si>
+  <si>
+    <t>Usuario_has_Jogo</t>
+  </si>
+  <si>
+    <t>ID_Usuario</t>
+  </si>
+  <si>
+    <t>ID_Jogo</t>
+  </si>
+  <si>
     <t>PS1</t>
   </si>
   <si>
-    <t>299,00</t>
-  </si>
-  <si>
-    <t>BaphoAbacaxi</t>
-  </si>
-  <si>
-    <t>diogomachado</t>
-  </si>
-  <si>
-    <t>enoisdoido</t>
-  </si>
-  <si>
-    <t>DiogoMachado</t>
-  </si>
-  <si>
-    <t>PixelPiracy</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>4323, 4235</t>
-  </si>
-  <si>
-    <t>Sobreviv, Educ</t>
-  </si>
-  <si>
     <t>PS2</t>
   </si>
   <si>
-    <t>RatoEnvenenado</t>
-  </si>
-  <si>
-    <t>ivosiqueira</t>
-  </si>
-  <si>
-    <t>partiuchapa</t>
-  </si>
-  <si>
-    <t>IvoSiqueira</t>
-  </si>
-  <si>
-    <t>GTAV</t>
-  </si>
-  <si>
-    <t>GTA</t>
-  </si>
-  <si>
     <t>PS3</t>
   </si>
   <si>
     <t>499,00</t>
   </si>
   <si>
-    <t>Baragund</t>
-  </si>
-  <si>
-    <t>thiagosilva</t>
-  </si>
-  <si>
-    <t>faloumanolo</t>
-  </si>
-  <si>
-    <t>ThiagoSilva</t>
-  </si>
-  <si>
-    <t>Dota2</t>
-  </si>
-  <si>
-    <t>4111, 4103</t>
-  </si>
-  <si>
-    <t>Estrateg, Acao</t>
-  </si>
-  <si>
-    <t>PS4</t>
-  </si>
-  <si>
-    <t>399,00</t>
-  </si>
-  <si>
-    <t>Tabelas normalizadas</t>
-  </si>
-  <si>
-    <t>Aventura</t>
-  </si>
-  <si>
-    <t>Acao</t>
-  </si>
-  <si>
-    <t>Educacao</t>
-  </si>
-  <si>
-    <t>Sobrevivencia</t>
-  </si>
-  <si>
-    <t>Estrategia</t>
-  </si>
-  <si>
-    <t>Usuario_has_Jogo</t>
-  </si>
-  <si>
-    <t>ID_Usuario</t>
-  </si>
-  <si>
-    <t>ID_Jogo</t>
-  </si>
-  <si>
     <t>XBOX 360</t>
+  </si>
+  <si>
+    <t>Nintendo 64</t>
+  </si>
+  <si>
+    <t>199,00</t>
   </si>
 </sst>
 </file>
@@ -379,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -479,10 +509,6 @@
     <xf borderId="7" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -671,17 +697,17 @@
       <c r="N6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="17">
-        <v>100321.0</v>
+      <c r="O6" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="22">
-        <v>1.0425E8</v>
+        <v>25</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -690,22 +716,22 @@
         <v>131000.0</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="17">
         <v>513242.0</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I7" s="18">
         <v>8.0</v>
@@ -713,29 +739,29 @@
       <c r="J7" s="18">
         <v>7.0</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>30</v>
+      <c r="K7" s="17">
+        <v>513240.0</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="17">
-        <v>100322.0</v>
+        <v>34</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="22">
-        <v>1.5768E8</v>
+        <v>37</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -744,22 +770,22 @@
         <v>253531.0</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="17">
         <v>613589.0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I8" s="18">
         <v>9.0</v>
@@ -771,7 +797,7 @@
         <v>613580.0</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>21</v>
@@ -779,17 +805,17 @@
       <c r="N8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="17">
-        <v>100323.0</v>
+      <c r="O8" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="22">
-        <v>8.691E7</v>
+        <v>25</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -798,22 +824,22 @@
         <v>98190.0</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G9" s="17">
         <v>434573.0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I9" s="18">
         <v>9.0</v>
@@ -822,25 +848,25 @@
         <v>7.0</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O9" s="17">
         <v>100324.0</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R9" s="22">
         <v>8.806E7</v>
@@ -848,7 +874,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
@@ -981,7 +1007,7 @@
         <v>4548.0</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -990,23 +1016,23 @@
         <v>131000.0</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="35">
         <v>513242.0</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J16" s="18">
         <v>8.0</v>
@@ -1019,14 +1045,14 @@
         <v>613580.0</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="17">
         <v>4103.0</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -1035,23 +1061,23 @@
         <v>253531.0</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="35">
         <v>613589.0</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J17" s="18">
         <v>9.0</v>
@@ -1060,14 +1086,18 @@
         <v>9.0</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
+      <c r="M17" s="17">
+        <v>513240.0</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="17">
         <v>4235.0</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -1076,23 +1106,23 @@
         <v>98190.0</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="35">
         <v>434573.0</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J18" s="18">
         <v>9.0</v>
@@ -1108,7 +1138,7 @@
         <v>4323.0</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1116,19 +1146,19 @@
         <v>4111.0</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
       <c r="G20" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H20" s="10"/>
     </row>
@@ -1147,10 +1177,10 @@
         <v>14</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -1160,10 +1190,10 @@
         <v>100321.0</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E22" s="22">
         <v>1.0425E8</v>
@@ -1183,10 +1213,10 @@
         <v>100322.0</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E23" s="22">
         <v>1.5768E8</v>
@@ -1204,10 +1234,10 @@
         <v>100323.0</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E24" s="22">
         <v>8.691E7</v>
@@ -1225,10 +1255,10 @@
         <v>100324.0</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E25" s="22">
         <v>8.806E7</v>
@@ -1247,16 +1277,30 @@
         <v>101451.0</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E26" s="22">
         <v>8.55E7</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="17">
+        <v>102032.0</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="22">
+        <v>3.293E7</v>
+      </c>
     </row>
     <row r="29">
       <c r="P29" s="1"/>
